--- a/ExcelFile/KhachHang/Import/KhachHang.xlsx
+++ b/ExcelFile/KhachHang/Import/KhachHang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam2HK2\JAVA2_DOAN_CuaHangGIay\ExcelFile\KhachHang\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20978706-477F-48C2-9C5D-B033F9231614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278016F3-6434-4D08-AA39-A213DD2D0B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5076" yWindow="1104" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Ten KH</t>
-  </si>
-  <si>
-    <t>Dia chi</t>
-  </si>
-  <si>
-    <t>SDT</t>
-  </si>
-  <si>
-    <t>Tich diem</t>
-  </si>
-  <si>
     <t>Le Minh</t>
   </si>
   <si>
@@ -64,6 +52,18 @@
   </si>
   <si>
     <t>test1</t>
+  </si>
+  <si>
+    <t>Tên khách hàng</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>Tích điểm</t>
   </si>
 </sst>
 </file>
@@ -99,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -107,8 +107,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +391,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,28 +402,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -432,13 +431,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -446,13 +445,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>

--- a/ExcelFile/KhachHang/Import/KhachHang.xlsx
+++ b/ExcelFile/KhachHang/Import/KhachHang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam2HK2\JAVA2_DOAN_CuaHangGIay\ExcelFile\KhachHang\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278016F3-6434-4D08-AA39-A213DD2D0B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE1E09-94F4-4490-AD46-1EF69FB73550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5076" yWindow="1104" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>0912452834</t>
   </si>
   <si>
-    <t>0983253415</t>
-  </si>
-  <si>
     <t>0912452832</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Tích điểm</t>
+  </si>
+  <si>
+    <t>0983253416</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,16 +403,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -445,13 +445,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
